--- a/05-UnitTests/UNIT TEST-AirportTaxiScheduling.xlsx
+++ b/05-UnitTests/UNIT TEST-AirportTaxiScheduling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leonardo Yaranga\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leonardo Yaranga\Escritorio\POO\T10-ProgressTeam\05-UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61498B79-6AAA-4553-9EF9-ECB07AAA5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADA76C-27F6-4BEA-B0C6-7C14B50D90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="17415" windowHeight="15480" xr2:uid="{C9C4A57C-7823-41A5-BD75-906720ED2A37}"/>
+    <workbookView xWindow="11385" yWindow="0" windowWidth="17415" windowHeight="15480" xr2:uid="{C9C4A57C-7823-41A5-BD75-906720ED2A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
   <si>
     <t>Caculate Total</t>
   </si>
@@ -500,13 +500,44 @@
   <si>
     <t>84 828 12</t>
   </si>
+  <si>
+    <t>kilometerNum</t>
+  </si>
+  <si>
+    <t>Calculate tarif</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>99.34</t>
+  </si>
+  <si>
+    <t>"22"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3999.6</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.00000000000E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -554,17 +585,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492D1C23-6606-4E26-B1B7-739CB197CD95}">
-  <dimension ref="B3:AC82"/>
+  <dimension ref="B3:AH96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z84" sqref="Z84"/>
+    <sheetView tabSelected="1" topLeftCell="AA69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ92" sqref="AJ92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,1339 +932,1497 @@
     <col min="22" max="22" width="14.42578125" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" customWidth="1"/>
     <col min="26" max="26" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1">
         <v>893</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>893</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
         <v>666</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>66</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
         <v>666</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>66</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>200</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>200</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3">
         <v>46453434534</v>
       </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>215</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>-2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>200</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>200</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>50033</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>50033</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>-99</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>-99</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1">
         <v>100</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>100</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>100</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>2</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>6</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>8</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>14</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>12</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>10</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>1</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
-      <c r="O33" s="2">
+      <c r="R32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="15:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="O33" s="1">
         <v>3</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
-      <c r="O34" s="2">
+      <c r="R33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="15:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="O34" s="1">
         <v>5</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="3:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="O35" s="2">
+      <c r="R34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="15:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="O35" s="1">
         <v>7</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="3:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="O36" s="2">
+      <c r="R35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="15:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="O36" s="1">
         <v>11</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="O37" s="2">
+      <c r="R36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="15:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="O37" s="1">
         <v>9</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="s">
+      <c r="R37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="15:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="O39" s="2">
+      <c r="R38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="15:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="O39" s="1">
         <v>15</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="3:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="O40" s="2">
+      <c r="R39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="15:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="O40" s="1">
         <v>18</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="O41" s="2">
+      <c r="R40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O41" s="1">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="O42" s="2" t="s">
+      <c r="R41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="O43" s="2" t="s">
+    <row r="43" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="T45" s="6"/>
-      <c r="U45" s="1" t="s">
+    <row r="45" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="U45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="U46" s="2" t="s">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+    </row>
+    <row r="46" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="U46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="V46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W46" s="2" t="s">
+      <c r="W46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X46" s="2" t="s">
+      <c r="X46" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="U47" s="2" t="s">
+    <row r="47" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="U47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47" s="1">
         <v>4</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W47" s="1">
         <v>4</v>
       </c>
-      <c r="X47" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="U48" s="2" t="s">
+      <c r="X47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="U48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V48" s="2">
+      <c r="V48" s="1">
         <v>2</v>
       </c>
-      <c r="W48" s="2">
+      <c r="W48" s="1">
         <v>2</v>
       </c>
-      <c r="X48" s="2" t="s">
+      <c r="X48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="1">
         <v>15</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W49" s="1">
         <v>15</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="X49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U50" s="2" t="s">
+      <c r="U50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V50" s="1">
         <v>6</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W50" s="1">
         <v>6</v>
       </c>
-      <c r="X50" s="2" t="s">
+      <c r="X50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U51" s="2" t="s">
+      <c r="U51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51" s="1">
         <v>8</v>
       </c>
-      <c r="W51" s="2">
+      <c r="W51" s="1">
         <v>8</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="X51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U52" s="2" t="s">
+      <c r="U52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52" s="1">
         <v>6</v>
       </c>
-      <c r="W52" s="2">
+      <c r="W52" s="1">
         <v>6</v>
       </c>
-      <c r="X52" s="2" t="s">
+      <c r="X52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U53" s="2"/>
-      <c r="V53" s="2">
-        <v>0</v>
-      </c>
-      <c r="W53" s="2" t="s">
+      <c r="U53" s="1"/>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X53" s="2" t="s">
+      <c r="X53" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U54" s="2" t="s">
+      <c r="U54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2" t="s">
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X54" s="2" t="s">
+      <c r="X54" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U55" s="2" t="s">
+      <c r="U55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V55" s="2">
+      <c r="V55" s="1">
         <v>3</v>
       </c>
-      <c r="W55" s="2">
+      <c r="W55" s="1">
         <v>3</v>
       </c>
-      <c r="X55" s="2" t="s">
+      <c r="X55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U56" s="2" t="s">
+      <c r="U56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V56" s="2">
+      <c r="V56" s="1">
         <v>14</v>
       </c>
-      <c r="W56" s="2">
+      <c r="W56" s="1">
         <v>14</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="X56" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U57" s="2" t="s">
+      <c r="U57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V57" s="2">
+      <c r="V57" s="1">
         <v>833339</v>
       </c>
-      <c r="W57" s="2">
+      <c r="W57" s="1">
         <v>833339</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="X57" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U58" s="2">
+      <c r="U58" s="1">
         <v>2930293</v>
       </c>
-      <c r="V58" s="2">
+      <c r="V58" s="1">
         <v>29302</v>
       </c>
-      <c r="W58" s="2">
+      <c r="W58" s="1">
         <v>29302</v>
       </c>
-      <c r="X58" s="2" t="s">
+      <c r="X58" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U59" s="2" t="s">
+      <c r="U59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="V59" s="2">
+      <c r="V59" s="1">
         <v>7</v>
       </c>
-      <c r="W59" s="2">
+      <c r="W59" s="1">
         <v>7</v>
       </c>
-      <c r="X59" s="2" t="s">
+      <c r="X59" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U60" s="2" t="s">
+      <c r="U60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V60" s="2">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2" t="s">
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X60" s="2" t="s">
+      <c r="X60" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U61" s="2">
+      <c r="U61" s="1">
         <v>333252523</v>
       </c>
-      <c r="V61" s="2">
+      <c r="V61" s="1">
         <v>33325</v>
       </c>
-      <c r="W61" s="2">
+      <c r="W61" s="1">
         <v>99</v>
       </c>
-      <c r="X61" s="2" t="s">
+      <c r="X61" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U62" s="2" t="s">
+      <c r="U62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V62" s="2">
+      <c r="V62" s="1">
         <v>99</v>
       </c>
-      <c r="W62" s="2">
+      <c r="W62" s="1">
         <v>9</v>
       </c>
-      <c r="X62" s="2" t="s">
+      <c r="X62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U63" s="2" t="s">
+      <c r="U63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V63" s="2">
+      <c r="V63" s="1">
         <v>9</v>
       </c>
-      <c r="W63" s="2">
+      <c r="W63" s="1">
         <v>99</v>
       </c>
-      <c r="X63" s="2" t="s">
+      <c r="X63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U64" s="2" t="s">
+      <c r="U64" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V64" s="2">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2" t="s">
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X64" s="2" t="s">
+      <c r="X64" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z67" s="1" t="s">
+      <c r="Z67" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
     </row>
     <row r="68" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z68" s="2" t="s">
+      <c r="Z68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA68" s="2" t="s">
+      <c r="AA68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB68" s="2" t="s">
+      <c r="AB68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC68" s="2" t="s">
+      <c r="AC68" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z69" s="2">
+      <c r="Z69" s="1">
         <v>1802640159</v>
       </c>
-      <c r="AA69" s="2" t="b">
+      <c r="AA69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AB69" s="2" t="b">
+      <c r="AB69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC69" s="2" t="s">
+      <c r="AC69" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z70" s="7" t="s">
+      <c r="Z70" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AA70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="2" t="s">
+      <c r="AA70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z71" s="2" t="s">
+      <c r="Z71" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="2" t="s">
+      <c r="AA71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z72" s="2" t="s">
+      <c r="Z72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="2" t="s">
+      <c r="AA72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z73" s="2">
+      <c r="Z73" s="1">
         <v>1805386206</v>
       </c>
-      <c r="AA73" s="2" t="b">
+      <c r="AA73" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AB73" s="2" t="b">
+      <c r="AB73" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC73" s="2" t="s">
+      <c r="AC73" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="74" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z74" s="2" t="s">
+      <c r="Z74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="2" t="s">
+      <c r="AA74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z75" s="2">
+      <c r="Z75" s="1">
         <v>28282828</v>
       </c>
-      <c r="AA75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="2" t="s">
+      <c r="AA75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z76" s="2" t="s">
+      <c r="Z76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="2" t="s">
+      <c r="AA76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z77" s="2">
+      <c r="Z77" s="1">
         <v>1600274433</v>
       </c>
-      <c r="AA77" s="2" t="b">
+      <c r="AA77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AB77" s="2" t="b">
+      <c r="AB77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC77" s="2" t="s">
+      <c r="AC77" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="78" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z78" s="2" t="s">
+      <c r="Z78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="2" t="s">
+      <c r="AA78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z79" s="2" t="s">
+      <c r="Z79" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="2" t="s">
+      <c r="AA79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="2" t="s">
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC80" s="2" t="s">
+      <c r="AC80" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z81" s="2">
+    <row r="81" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="Z81" s="1">
         <v>858499449</v>
       </c>
-      <c r="AA81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="26:29" x14ac:dyDescent="0.25">
-      <c r="Z82" s="2">
+      <c r="AA81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="Z82" s="1">
         <v>10100101</v>
       </c>
-      <c r="AA82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="2" t="s">
+      <c r="AA82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE85" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+    </row>
+    <row r="86" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG87" s="7">
+        <v>6.1200011999999999</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>39736</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>39736</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE91" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE92" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AH92" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE93" s="3">
+        <v>77777</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="AH93" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE94" s="1">
+        <v>9999</v>
+      </c>
+      <c r="AF94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE95" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="26:34" x14ac:dyDescent="0.25">
+      <c r="AE96" s="3">
+        <v>35555555</v>
+      </c>
+      <c r="AF96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH96" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="O24:R24"/>
     <mergeCell ref="U45:X45"/>
     <mergeCell ref="Z67:AC67"/>
+    <mergeCell ref="AE85:AH85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
